--- a/pj_creator_2/res/xlsx/back_story_description.xlsx
+++ b/pj_creator_2/res/xlsx/back_story_description.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15360" windowHeight="4740"/>
+    <workbookView windowWidth="15360" windowHeight="4680"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -240,12 +240,10 @@
     <t>adopted apprentice</t>
   </si>
   <si>
-    <t>He never receives attention from his parents, no 
-rules and had to do everything alone.</t>
-  </si>
-  <si>
-    <t>el nunca recibe la atención de sus padres, sin 
-reglas y tubo que hacerlo todo solo.</t>
+    <t>He was adopted by a teacher who taught him his job in exchange for working as an assistant.</t>
+  </si>
+  <si>
+    <t>fue adoptado por un maestro quien le enseño su trabajo a cambio de trabajar como ayundante</t>
   </si>
   <si>
     <t>lost child</t>
@@ -1003,12 +1001,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1333,8 +1328,8 @@
   <sheetPr/>
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="38.5555555555556" defaultRowHeight="87" customHeight="1" outlineLevelCol="3"/>
@@ -1713,10 +1708,10 @@
       <c r="A34" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="2" t="s">
         <v>102</v>
       </c>
     </row>
